--- a/data/trans_orig/P19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4AFA17-176D-4A1F-BB71-BD3A5BA4F71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDBE2AC-62D9-41E0-9636-BD77445F6888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB63FDA8-D177-41B6-B103-E7BF63F917D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55BE1FEA-146F-4E66-A20E-74AD04739FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,1486 +77,1510 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>24,54%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>51,87%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CA0DC7-8783-47F5-BDE8-5F1AF0249A2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E332FE3-5026-4DC8-8993-D7D8CF1CCA8F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2644,7 @@
         <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>296778</v>
+        <v>296777</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2671,7 +2695,7 @@
         <v>428</v>
       </c>
       <c r="I15" s="7">
-        <v>438169</v>
+        <v>438168</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3187,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF0F6CA-2087-4A25-A6FF-7E258D2C6483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60217F1D-BF23-4FE7-84EF-8B373D6A3DB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3374,7 +3398,7 @@
         <v>267</v>
       </c>
       <c r="I5" s="7">
-        <v>273095</v>
+        <v>273096</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>158</v>
@@ -3425,7 +3449,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3502,7 +3526,7 @@
         <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3541,13 @@
         <v>381224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -3532,13 +3556,13 @@
         <v>357701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
@@ -3547,13 +3571,13 @@
         <v>738925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3645,13 @@
         <v>227583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -3636,13 +3660,13 @@
         <v>260823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -3651,13 +3675,13 @@
         <v>488407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3696,13 @@
         <v>359068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -3687,13 +3711,13 @@
         <v>399569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -3702,13 +3726,13 @@
         <v>758636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3800,13 @@
         <v>184452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -3791,13 +3815,13 @@
         <v>219221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>357</v>
@@ -3806,13 +3830,13 @@
         <v>403673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,16 +3848,16 @@
         <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>358388</v>
+        <v>358387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -3842,13 +3866,13 @@
         <v>344130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -3857,13 +3881,13 @@
         <v>702517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,7 +3899,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3931,13 +3955,13 @@
         <v>84959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3946,13 +3970,13 @@
         <v>112721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3961,13 +3985,13 @@
         <v>197681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4006,13 @@
         <v>274290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>253</v>
@@ -3997,13 +4021,13 @@
         <v>277994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4012,13 +4036,13 @@
         <v>552284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4110,13 @@
         <v>62046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4101,13 +4125,13 @@
         <v>90325</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -4116,13 +4140,13 @@
         <v>152372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4161,13 @@
         <v>384378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>479</v>
@@ -4152,13 +4176,13 @@
         <v>512677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>827</v>
@@ -4167,13 +4191,13 @@
         <v>897054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4265,13 @@
         <v>863862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>913</v>
@@ -4256,13 +4280,13 @@
         <v>983135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1727</v>
@@ -4271,13 +4295,13 @@
         <v>1846997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4316,13 @@
         <v>2047744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2004</v>
@@ -4307,13 +4331,13 @@
         <v>2165167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>3923</v>
@@ -4322,13 +4346,13 @@
         <v>4212911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5180BFC2-3C86-438C-BCFE-7AFA49874760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E9BCEA-3F9F-4DE8-AC13-A0F3DD12DE19}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +4554,13 @@
         <v>118032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -4545,13 +4569,13 @@
         <v>118591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>232</v>
@@ -4560,13 +4584,13 @@
         <v>236623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4605,13 @@
         <v>234808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -4596,13 +4620,13 @@
         <v>233339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -4611,13 +4635,13 @@
         <v>468147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4709,13 @@
         <v>199818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -4700,13 +4724,13 @@
         <v>189037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -4715,13 +4739,13 @@
         <v>388855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4760,13 @@
         <v>293260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4751,13 +4775,13 @@
         <v>307683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>595</v>
@@ -4766,13 +4790,13 @@
         <v>600942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4864,13 @@
         <v>236597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -4855,13 +4879,13 @@
         <v>254978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -4870,13 +4894,13 @@
         <v>491575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4915,13 @@
         <v>321263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>320</v>
@@ -4906,13 +4930,13 @@
         <v>318102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -4921,13 +4945,13 @@
         <v>639365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5019,13 @@
         <v>191185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -5010,13 +5034,13 @@
         <v>239762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -5025,13 +5049,13 @@
         <v>430947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5070,13 @@
         <v>321187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5061,13 +5085,13 @@
         <v>305122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>575</v>
@@ -5076,13 +5100,13 @@
         <v>626309</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5174,13 @@
         <v>104424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5165,13 +5189,13 @@
         <v>137419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -5180,13 +5204,13 @@
         <v>241844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5225,13 @@
         <v>266578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -5216,13 +5240,13 @@
         <v>258454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -5231,13 +5255,13 @@
         <v>525031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,13 +5329,13 @@
         <v>78394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -5320,13 +5344,13 @@
         <v>126485</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -5335,13 +5359,13 @@
         <v>204879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5380,13 @@
         <v>298788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -5371,13 +5395,13 @@
         <v>378342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M20" s="7">
         <v>636</v>
@@ -5386,13 +5410,13 @@
         <v>677130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5484,13 @@
         <v>928451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -5475,13 +5499,13 @@
         <v>1066273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>1906</v>
@@ -5490,13 +5514,13 @@
         <v>1994724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,16 +5532,16 @@
         <v>1646</v>
       </c>
       <c r="D23" s="7">
-        <v>1735883</v>
+        <v>1735882</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>1705</v>
@@ -5526,28 +5550,28 @@
         <v>1801042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7">
         <v>3351</v>
       </c>
       <c r="N23" s="7">
-        <v>3536925</v>
+        <v>3536924</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5583,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5589,7 +5613,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5625,7 +5649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7086CA29-4833-4B03-937B-F0366925F1A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03605A-B011-49DA-B249-74753F7AB1A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5642,7 +5666,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,13 +5773,13 @@
         <v>167511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5764,13 +5788,13 @@
         <v>142001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
         <v>155</v>
@@ -5779,13 +5803,13 @@
         <v>309512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5824,13 @@
         <v>190247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -5815,13 +5839,13 @@
         <v>202495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -5830,13 +5854,13 @@
         <v>392742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5928,13 @@
         <v>228066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -5919,13 +5943,13 @@
         <v>258431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>398</v>
@@ -5934,13 +5958,13 @@
         <v>486497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5979,13 @@
         <v>179134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>198</v>
@@ -5970,13 +5994,13 @@
         <v>227444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>325</v>
@@ -5985,13 +6009,13 @@
         <v>406578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6083,13 @@
         <v>309106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>427</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>468</v>
@@ -6074,13 +6098,13 @@
         <v>329254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>754</v>
@@ -6089,13 +6113,13 @@
         <v>638361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6134,13 @@
         <v>235249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H11" s="7">
         <v>357</v>
@@ -6125,13 +6149,13 @@
         <v>242942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>56</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -6140,13 +6164,13 @@
         <v>478191</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6238,13 @@
         <v>328487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
         <v>612</v>
@@ -6229,13 +6253,13 @@
         <v>395743</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>938</v>
@@ -6244,13 +6268,13 @@
         <v>724230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6289,13 @@
         <v>373126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -6280,13 +6304,13 @@
         <v>338064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>819</v>
@@ -6295,13 +6319,13 @@
         <v>711190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6393,13 @@
         <v>270496</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>510</v>
@@ -6384,13 +6408,13 @@
         <v>302077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>810</v>
@@ -6399,13 +6423,13 @@
         <v>572573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6444,13 @@
         <v>314274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -6435,28 +6459,28 @@
         <v>280266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>816</v>
       </c>
       <c r="N17" s="7">
-        <v>594540</v>
+        <v>594541</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,7 +6522,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6524,13 +6548,13 @@
         <v>231270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
         <v>600</v>
@@ -6539,13 +6563,13 @@
         <v>433442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M19" s="7">
         <v>936</v>
@@ -6554,13 +6578,13 @@
         <v>664712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6599,13 @@
         <v>449946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>1057</v>
@@ -6590,13 +6614,13 @@
         <v>564688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>1724</v>
@@ -6605,13 +6629,13 @@
         <v>1014634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,16 +6700,16 @@
         <v>1473</v>
       </c>
       <c r="D22" s="7">
-        <v>1534937</v>
+        <v>1534936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="H22" s="7">
         <v>2518</v>
@@ -6694,13 +6718,13 @@
         <v>1860948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M22" s="7">
         <v>3991</v>
@@ -6709,13 +6733,13 @@
         <v>3395885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6754,13 @@
         <v>1741975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H23" s="7">
         <v>2699</v>
@@ -6745,13 +6769,13 @@
         <v>1855900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="M23" s="7">
         <v>4479</v>
@@ -6760,13 +6784,13 @@
         <v>3597875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,7 +6802,7 @@
         <v>3253</v>
       </c>
       <c r="D24" s="7">
-        <v>3276912</v>
+        <v>3276911</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDBE2AC-62D9-41E0-9636-BD77445F6888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0EE1F6-DDF0-40A3-B0DB-9B776F91B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55BE1FEA-146F-4E66-A20E-74AD04739FB2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D72588E6-CEBE-4DDE-BE4E-0A0FF2A4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,46%</t>
   </si>
   <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>39,06%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>38,1%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
   </si>
   <si>
     <t>60,94%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
   <si>
     <t>61,9%</t>
   </si>
   <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1314 +197,1308 @@
     <t>35,93%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>34,06%</t>
   </si>
   <si>
-    <t>30,25%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
   </si>
   <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
   </si>
   <si>
     <t>66,05%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
     <t>63,03%</t>
   </si>
   <si>
@@ -1517,16 +1511,10 @@
     <t>35,12%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
     <t>60,42%</t>
   </si>
   <si>
     <t>45,91%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
   </si>
   <si>
     <t>46,84%</t>
@@ -1992,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E332FE3-5026-4DC8-8993-D7D8CF1CCA8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29945A49-7982-4188-A921-9689E63C4723}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2644,7 +2632,7 @@
         <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>296777</v>
+        <v>296778</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2695,7 +2683,7 @@
         <v>428</v>
       </c>
       <c r="I15" s="7">
-        <v>438168</v>
+        <v>438169</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3067,7 +3055,7 @@
         <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7">
         <v>1453</v>
@@ -3076,13 +3064,13 @@
         <v>1499329</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3085,13 @@
         <v>1752299</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1902</v>
@@ -3112,28 +3100,28 @@
         <v>1941123</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>3630</v>
       </c>
       <c r="N23" s="7">
-        <v>3693421</v>
+        <v>3693422</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3163,7 @@
         <v>5083</v>
       </c>
       <c r="N24" s="7">
-        <v>5192750</v>
+        <v>5192751</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3189,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60217F1D-BF23-4FE7-84EF-8B373D6A3DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F287C5-C2BC-4A16-AAF0-7D9160D17DC9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3323,13 @@
         <v>88778</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3350,13 +3338,13 @@
         <v>97895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -3365,13 +3353,13 @@
         <v>186673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,28 +3374,28 @@
         <v>290398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
       </c>
       <c r="I5" s="7">
-        <v>273096</v>
+        <v>273095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>553</v>
@@ -3416,13 +3404,13 @@
         <v>563493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,7 +3437,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3490,13 +3478,13 @@
         <v>216043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3505,13 +3493,13 @@
         <v>202150</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>402</v>
@@ -3520,13 +3508,13 @@
         <v>418193</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,28 +3529,28 @@
         <v>381224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>357701</v>
+        <v>357702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
@@ -3571,13 +3559,13 @@
         <v>738925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,7 +3592,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>559851</v>
+        <v>559852</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3645,13 +3633,13 @@
         <v>227583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -3660,13 +3648,13 @@
         <v>260823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -3675,13 +3663,13 @@
         <v>488407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3684,13 @@
         <v>359068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -3711,13 +3699,13 @@
         <v>399569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -3726,13 +3714,13 @@
         <v>758636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3788,13 @@
         <v>184452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -3815,13 +3803,13 @@
         <v>219221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>357</v>
@@ -3830,13 +3818,13 @@
         <v>403673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,16 +3836,16 @@
         <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>358387</v>
+        <v>358388</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -3866,13 +3854,13 @@
         <v>344130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -3881,13 +3869,13 @@
         <v>702517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3887,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3955,13 +3943,13 @@
         <v>84959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3970,13 +3958,13 @@
         <v>112721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3985,13 +3973,13 @@
         <v>197681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3994,13 @@
         <v>274290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>253</v>
@@ -4021,13 +4009,13 @@
         <v>277994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4036,13 +4024,13 @@
         <v>552284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4098,13 @@
         <v>62046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4125,13 +4113,13 @@
         <v>90325</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -4140,13 +4128,13 @@
         <v>152372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4149,13 @@
         <v>384378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>479</v>
@@ -4176,13 +4164,13 @@
         <v>512677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>827</v>
@@ -4191,13 +4179,13 @@
         <v>897054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4253,13 @@
         <v>863862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>913</v>
@@ -4280,13 +4268,13 @@
         <v>983135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1727</v>
@@ -4295,13 +4283,13 @@
         <v>1846997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4304,13 @@
         <v>2047744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2004</v>
@@ -4331,13 +4319,13 @@
         <v>2165167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>3923</v>
@@ -4346,13 +4334,13 @@
         <v>4212911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E9BCEA-3F9F-4DE8-AC13-A0F3DD12DE19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2CEC48-7E70-4BD8-A9A2-47BEAFE96E41}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4542,13 @@
         <v>118032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -4569,13 +4557,13 @@
         <v>118591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>232</v>
@@ -4584,13 +4572,13 @@
         <v>236623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4593,13 @@
         <v>234808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -4620,13 +4608,13 @@
         <v>233339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -4635,13 +4623,13 @@
         <v>468147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4697,13 @@
         <v>199818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -4724,13 +4712,13 @@
         <v>189037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -4739,13 +4727,13 @@
         <v>388855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4748,13 @@
         <v>293260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4775,13 +4763,13 @@
         <v>307683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>595</v>
@@ -4790,13 +4778,13 @@
         <v>600942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4852,13 @@
         <v>236597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -4879,13 +4867,13 @@
         <v>254978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -4894,13 +4882,13 @@
         <v>491575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4903,13 @@
         <v>321263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>320</v>
@@ -4930,13 +4918,13 @@
         <v>318102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -4945,13 +4933,13 @@
         <v>639365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5007,13 @@
         <v>191185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -5034,13 +5022,13 @@
         <v>239762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -5049,13 +5037,13 @@
         <v>430947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5058,13 @@
         <v>321187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5085,13 +5073,13 @@
         <v>305122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>575</v>
@@ -5100,13 +5088,13 @@
         <v>626309</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5162,13 @@
         <v>104424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5189,13 +5177,13 @@
         <v>137419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -5204,13 +5192,13 @@
         <v>241844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5213,13 @@
         <v>266578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -5240,13 +5228,13 @@
         <v>258454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -5255,13 +5243,13 @@
         <v>525031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5317,13 @@
         <v>78394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -5344,13 +5332,13 @@
         <v>126485</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -5359,13 +5347,13 @@
         <v>204879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5368,13 @@
         <v>298788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -5395,13 +5383,13 @@
         <v>378342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>636</v>
@@ -5410,13 +5398,13 @@
         <v>677130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5472,13 @@
         <v>928451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -5499,13 +5487,13 @@
         <v>1066273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>1906</v>
@@ -5514,13 +5502,13 @@
         <v>1994724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,16 +5520,16 @@
         <v>1646</v>
       </c>
       <c r="D23" s="7">
-        <v>1735882</v>
+        <v>1735883</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>1705</v>
@@ -5550,13 +5538,13 @@
         <v>1801042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>3351</v>
@@ -5565,13 +5553,13 @@
         <v>3536924</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5571,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5627,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5649,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A03605A-B011-49DA-B249-74753F7AB1A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF800D46-0087-4345-9603-FC5F2626D325}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5666,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5773,13 +5761,13 @@
         <v>167511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5788,13 +5776,13 @@
         <v>142001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>155</v>
@@ -5803,13 +5791,13 @@
         <v>309512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5812,13 @@
         <v>190247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -5839,13 +5827,13 @@
         <v>202495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -5854,13 +5842,13 @@
         <v>392742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5916,13 @@
         <v>228066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -5943,13 +5931,13 @@
         <v>258431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>398</v>
@@ -5958,13 +5946,13 @@
         <v>486497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5967,13 @@
         <v>179134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>198</v>
@@ -5994,13 +5982,13 @@
         <v>227444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>325</v>
@@ -6009,13 +5997,13 @@
         <v>406578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6071,13 @@
         <v>309106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>468</v>
@@ -6098,13 +6086,13 @@
         <v>329254</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>754</v>
@@ -6113,13 +6101,13 @@
         <v>638361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6134,13 +6122,13 @@
         <v>235249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>357</v>
@@ -6149,13 +6137,13 @@
         <v>242942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -6164,13 +6152,13 @@
         <v>478191</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6226,13 @@
         <v>328487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H13" s="7">
         <v>612</v>
@@ -6253,13 +6241,13 @@
         <v>395743</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M13" s="7">
         <v>938</v>
@@ -6268,13 +6256,13 @@
         <v>724230</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6277,13 @@
         <v>373126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -6304,13 +6292,13 @@
         <v>338064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>819</v>
@@ -6319,13 +6307,13 @@
         <v>711190</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6381,13 @@
         <v>270496</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>510</v>
@@ -6408,13 +6396,13 @@
         <v>302077</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M16" s="7">
         <v>810</v>
@@ -6423,13 +6411,13 @@
         <v>572573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6432,13 @@
         <v>314274</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -6459,13 +6447,13 @@
         <v>280266</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M17" s="7">
         <v>816</v>
@@ -6474,13 +6462,13 @@
         <v>594541</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6536,13 @@
         <v>231270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H19" s="7">
         <v>600</v>
@@ -6563,13 +6551,13 @@
         <v>433442</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M19" s="7">
         <v>936</v>
@@ -6578,13 +6566,13 @@
         <v>664712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>486</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6587,13 @@
         <v>449946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>1057</v>
@@ -6614,13 +6602,13 @@
         <v>564688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>1724</v>
@@ -6629,13 +6617,13 @@
         <v>1014634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6691,13 @@
         <v>1534936</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>2518</v>
@@ -6718,13 +6706,13 @@
         <v>1860948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>3991</v>
@@ -6733,13 +6721,13 @@
         <v>3395885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6754,13 +6742,13 @@
         <v>1741975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>2699</v>
@@ -6769,13 +6757,13 @@
         <v>1855900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>4479</v>
@@ -6784,13 +6772,13 @@
         <v>3597875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0EE1F6-DDF0-40A3-B0DB-9B776F91B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5587D33D-AE5F-4155-A7F8-8E4161CD9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D72588E6-CEBE-4DDE-BE4E-0A0FF2A4AD4C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E74CE4F-2B77-4BC2-95B0-A2B0B547621A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>74,46%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>39,06%</t>
   </si>
   <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>38,1%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>38,59%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>60,94%</t>
   </si>
   <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
   </si>
   <si>
     <t>61,9%</t>
   </si>
   <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
   </si>
   <si>
     <t>61,41%</t>
   </si>
   <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>35,93%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>34,06%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>65,94%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1321 +254,1309 @@
     <t>30,9%</t>
   </si>
   <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
     <t>26,39%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>73,61%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2012 (Tasa respuesta: 86,83%)</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
   </si>
   <si>
     <t>40,52%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>59,48%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>42,03%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
   </si>
   <si>
     <t>57,97%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
   </si>
   <si>
     <t>34,7%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>65,3%</t>
   </si>
   <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
     <t>46,84%</t>
   </si>
   <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>53,16%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>51,44%</t>
   </si>
   <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29945A49-7982-4188-A921-9689E63C4723}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89859EF-F000-4CFC-A1F9-D7FA9434F05A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3055,7 +3043,7 @@
         <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1453</v>
@@ -3064,13 +3052,13 @@
         <v>1499329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3073,13 @@
         <v>1752299</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1902</v>
@@ -3100,28 +3088,28 @@
         <v>1941123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>3630</v>
       </c>
       <c r="N23" s="7">
-        <v>3693422</v>
+        <v>3693421</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3151,7 @@
         <v>5083</v>
       </c>
       <c r="N24" s="7">
-        <v>5192751</v>
+        <v>5192750</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3165,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F287C5-C2BC-4A16-AAF0-7D9160D17DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AAC9E1-466C-469A-91BB-28183C7F40EE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3311,13 @@
         <v>88778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3338,13 +3326,13 @@
         <v>97895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -3353,13 +3341,13 @@
         <v>186673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3362,13 @@
         <v>290398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
@@ -3389,13 +3377,13 @@
         <v>273095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>553</v>
@@ -3404,13 +3392,13 @@
         <v>563493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3466,13 @@
         <v>216043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3493,13 +3481,13 @@
         <v>202150</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>402</v>
@@ -3508,10 +3496,10 @@
         <v>418193</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>32</v>
@@ -3529,28 +3517,28 @@
         <v>381224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>357702</v>
+        <v>357701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
@@ -3559,13 +3547,13 @@
         <v>738925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,7 +3580,7 @@
         <v>523</v>
       </c>
       <c r="I9" s="7">
-        <v>559852</v>
+        <v>559851</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3633,13 +3621,13 @@
         <v>227583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -3648,13 +3636,13 @@
         <v>260823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -3663,13 +3651,13 @@
         <v>488407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3672,13 @@
         <v>359068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -3699,13 +3687,13 @@
         <v>399569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -3714,13 +3702,13 @@
         <v>758636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3776,13 @@
         <v>184452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -3803,13 +3791,13 @@
         <v>219221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>357</v>
@@ -3818,13 +3806,13 @@
         <v>403673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3827,13 @@
         <v>358388</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -3854,13 +3842,13 @@
         <v>344130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -3869,13 +3857,13 @@
         <v>702517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3931,13 @@
         <v>84959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3958,13 +3946,13 @@
         <v>112721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3973,13 +3961,13 @@
         <v>197681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3982,13 @@
         <v>274290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>253</v>
@@ -4009,13 +3997,13 @@
         <v>277994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4024,13 +4012,13 @@
         <v>552284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4086,13 @@
         <v>62046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>85</v>
@@ -4113,13 +4101,13 @@
         <v>90325</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -4128,13 +4116,13 @@
         <v>152372</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4137,13 @@
         <v>384378</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>479</v>
@@ -4164,13 +4152,13 @@
         <v>512677</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>827</v>
@@ -4179,13 +4167,13 @@
         <v>897054</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4241,13 @@
         <v>863862</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>913</v>
@@ -4268,13 +4256,13 @@
         <v>983135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1727</v>
@@ -4283,13 +4271,13 @@
         <v>1846997</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4292,13 @@
         <v>2047744</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2004</v>
@@ -4319,13 +4307,13 @@
         <v>2165167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>3923</v>
@@ -4334,13 +4322,13 @@
         <v>4212911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4384,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2CEC48-7E70-4BD8-A9A2-47BEAFE96E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACEEF3D-88CA-4578-840B-7E142CB14FA4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +4530,13 @@
         <v>118032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -4557,13 +4545,13 @@
         <v>118591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>232</v>
@@ -4572,13 +4560,13 @@
         <v>236623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4581,13 @@
         <v>234808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -4608,13 +4596,13 @@
         <v>233339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -4623,13 +4611,13 @@
         <v>468147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4685,13 @@
         <v>199818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -4712,13 +4700,13 @@
         <v>189037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -4727,13 +4715,13 @@
         <v>388855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4736,13 @@
         <v>293260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4763,13 +4751,13 @@
         <v>307683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>595</v>
@@ -4778,13 +4766,13 @@
         <v>600942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4840,13 @@
         <v>236597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -4867,13 +4855,13 @@
         <v>254978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -4882,13 +4870,13 @@
         <v>491575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4891,13 @@
         <v>321263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>320</v>
@@ -4918,13 +4906,13 @@
         <v>318102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -4933,13 +4921,13 @@
         <v>639365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +4995,13 @@
         <v>191185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -5022,13 +5010,13 @@
         <v>239762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -5037,13 +5025,13 @@
         <v>430947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5046,13 @@
         <v>321187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5073,13 +5061,13 @@
         <v>305122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>575</v>
@@ -5088,13 +5076,13 @@
         <v>626309</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5150,13 @@
         <v>104424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5177,13 +5165,13 @@
         <v>137419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -5192,13 +5180,13 @@
         <v>241844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5201,13 @@
         <v>266578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -5228,13 +5216,13 @@
         <v>258454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -5243,13 +5231,13 @@
         <v>525031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5305,13 @@
         <v>78394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -5332,13 +5320,13 @@
         <v>126485</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M19" s="7">
         <v>195</v>
@@ -5347,13 +5335,13 @@
         <v>204879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5356,13 @@
         <v>298788</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H20" s="7">
         <v>318</v>
@@ -5383,13 +5371,13 @@
         <v>378342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M20" s="7">
         <v>636</v>
@@ -5398,13 +5386,13 @@
         <v>677130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5460,13 @@
         <v>928451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -5487,13 +5475,13 @@
         <v>1066273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M22" s="7">
         <v>1906</v>
@@ -5502,13 +5490,13 @@
         <v>1994724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5511,13 @@
         <v>1735883</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H23" s="7">
         <v>1705</v>
@@ -5538,28 +5526,28 @@
         <v>1801042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M23" s="7">
         <v>3351</v>
       </c>
       <c r="N23" s="7">
-        <v>3536924</v>
+        <v>3536925</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,7 +5589,7 @@
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5615,7 +5603,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF800D46-0087-4345-9603-FC5F2626D325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF2A7C-7609-425E-9A7A-0E507FBCD3C7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5654,7 +5642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5761,13 +5749,13 @@
         <v>167511</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5776,13 +5764,13 @@
         <v>142001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>155</v>
@@ -5791,13 +5779,13 @@
         <v>309512</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5800,13 @@
         <v>190247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
@@ -5827,13 +5815,13 @@
         <v>202495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -5842,13 +5830,13 @@
         <v>392742</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5904,13 @@
         <v>228066</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
@@ -5931,13 +5919,13 @@
         <v>258431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M7" s="7">
         <v>398</v>
@@ -5946,13 +5934,13 @@
         <v>486497</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5955,13 @@
         <v>179134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H8" s="7">
         <v>198</v>
@@ -5982,7 +5970,7 @@
         <v>227444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>421</v>
@@ -6071,13 +6059,13 @@
         <v>309106</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>468</v>
@@ -6086,13 +6074,13 @@
         <v>329254</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>754</v>
@@ -6101,13 +6089,13 @@
         <v>638361</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6110,13 @@
         <v>235249</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>357</v>
@@ -6137,13 +6125,13 @@
         <v>242942</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -6152,13 +6140,13 @@
         <v>478191</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6214,13 @@
         <v>328487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H13" s="7">
         <v>612</v>
@@ -6241,13 +6229,13 @@
         <v>395743</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>938</v>
@@ -6256,13 +6244,13 @@
         <v>724230</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6265,13 @@
         <v>373126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -6292,13 +6280,13 @@
         <v>338064</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>819</v>
@@ -6307,13 +6295,13 @@
         <v>711190</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6369,13 @@
         <v>270496</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H16" s="7">
         <v>510</v>
@@ -6396,13 +6384,13 @@
         <v>302077</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>810</v>
@@ -6411,13 +6399,13 @@
         <v>572573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6420,13 @@
         <v>314274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
@@ -6447,28 +6435,28 @@
         <v>280266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>816</v>
       </c>
       <c r="N17" s="7">
-        <v>594541</v>
+        <v>594540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6498,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6536,13 +6524,13 @@
         <v>231270</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>600</v>
@@ -6551,13 +6539,13 @@
         <v>433442</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>936</v>
@@ -6566,13 +6554,13 @@
         <v>664712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6575,13 @@
         <v>449946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H20" s="7">
         <v>1057</v>
@@ -6602,13 +6590,13 @@
         <v>564688</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>1724</v>
@@ -6617,13 +6605,13 @@
         <v>1014634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,16 +6676,16 @@
         <v>1473</v>
       </c>
       <c r="D22" s="7">
-        <v>1534936</v>
+        <v>1534937</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>2518</v>
@@ -6706,13 +6694,13 @@
         <v>1860948</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>3991</v>
@@ -6721,13 +6709,13 @@
         <v>3395885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6730,13 @@
         <v>1741975</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H23" s="7">
         <v>2699</v>
@@ -6757,13 +6745,13 @@
         <v>1855900</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M23" s="7">
         <v>4479</v>
@@ -6772,13 +6760,13 @@
         <v>3597875</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,7 +6778,7 @@
         <v>3253</v>
       </c>
       <c r="D24" s="7">
-        <v>3276911</v>
+        <v>3276912</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6834,7 +6822,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5587D33D-AE5F-4155-A7F8-8E4161CD9AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6219A596-B9A4-4856-8EBA-B2031CACC375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E74CE4F-2B77-4BC2-95B0-A2B0B547621A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEE800C-522B-4927-92B9-87984E0217D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="583">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2007 (Tasa respuesta: 78,07%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>39,06%</t>
@@ -191,7 +191,7 @@
     <t>64,14%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>35,93%</t>
@@ -248,7 +248,7 @@
     <t>67,96%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>30,9%</t>
@@ -305,7 +305,7 @@
     <t>71,76%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>19,38%</t>
@@ -362,61 +362,118 @@
     <t>81,12%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>28,62%</t>
@@ -737,826 +794,1000 @@
     <t>76,99%</t>
   </si>
   <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue una limpieza de boca en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>57,76%</t>
   </si>
   <si>
     <t>46,06%</t>
   </si>
   <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89859EF-F000-4CFC-A1F9-D7FA9434F05A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3F4B48-8166-4CFC-A43D-25E3DDDE5A27}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2170,7 +2401,7 @@
         <v>555</v>
       </c>
       <c r="N5" s="7">
-        <v>535622</v>
+        <v>535621</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2221,7 +2452,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2861,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>27147</v>
+        <v>21022</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2876,10 +3107,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I19" s="7">
-        <v>53480</v>
+        <v>42993</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2891,10 +3122,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>80627</v>
+        <v>64015</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2912,10 +3143,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="D20" s="7">
-        <v>312382</v>
+        <v>191743</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2927,10 +3158,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>394</v>
+        <v>221</v>
       </c>
       <c r="I20" s="7">
-        <v>400735</v>
+        <v>203014</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2942,10 +3173,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>715</v>
+        <v>418</v>
       </c>
       <c r="N20" s="7">
-        <v>713117</v>
+        <v>394757</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2963,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2978,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="I21" s="7">
-        <v>454215</v>
+        <v>246007</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2993,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>797</v>
+        <v>485</v>
       </c>
       <c r="N21" s="7">
-        <v>793744</v>
+        <v>458772</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3010,55 +3241,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>679</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>702443</v>
+        <v>6124</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>774</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>796886</v>
+        <v>10487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1453</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>1499329</v>
+        <v>16611</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +3298,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1728</v>
+        <v>124</v>
       </c>
       <c r="D23" s="7">
-        <v>1752299</v>
+        <v>120640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1902</v>
+        <v>173</v>
       </c>
       <c r="I23" s="7">
-        <v>1941123</v>
+        <v>197721</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>3630</v>
+        <v>297</v>
       </c>
       <c r="N23" s="7">
-        <v>3693421</v>
+        <v>318361</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,63 +3349,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>679</v>
+      </c>
+      <c r="D25" s="7">
+        <v>702443</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>774</v>
+      </c>
+      <c r="I25" s="7">
+        <v>796886</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1453</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1499329</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1728</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1752299</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1902</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1941123</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3630</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3693421</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2407</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2454742</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2676</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2738009</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5083</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5192750</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3187,8 +3574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AAC9E1-466C-469A-91BB-28183C7F40EE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D119D3-D93D-4499-87BC-DCD379DBCC44}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3204,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,13 +3698,13 @@
         <v>88778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -3326,13 +3713,13 @@
         <v>97895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -3341,13 +3728,13 @@
         <v>186673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,28 +3749,28 @@
         <v>290398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>267</v>
       </c>
       <c r="I5" s="7">
-        <v>273095</v>
+        <v>273096</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>553</v>
@@ -3392,13 +3779,13 @@
         <v>563493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3812,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3466,13 +3853,13 @@
         <v>216043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>191</v>
@@ -3481,13 +3868,13 @@
         <v>202150</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>402</v>
@@ -3496,10 +3883,10 @@
         <v>418193</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>32</v>
@@ -3517,13 +3904,13 @@
         <v>381224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>332</v>
@@ -3532,13 +3919,13 @@
         <v>357701</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>701</v>
@@ -3547,13 +3934,13 @@
         <v>738925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +4008,13 @@
         <v>227583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>249</v>
@@ -3636,13 +4023,13 @@
         <v>260823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>467</v>
@@ -3651,13 +4038,13 @@
         <v>488407</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +4059,13 @@
         <v>359068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>373</v>
@@ -3687,13 +4074,13 @@
         <v>399569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>718</v>
@@ -3702,13 +4089,13 @@
         <v>758636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +4163,13 @@
         <v>184452</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -3791,13 +4178,13 @@
         <v>219221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>357</v>
@@ -3806,13 +4193,13 @@
         <v>403673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,16 +4211,16 @@
         <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>358388</v>
+        <v>358387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -3842,13 +4229,13 @@
         <v>344130</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>619</v>
@@ -3857,13 +4244,13 @@
         <v>702517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,7 +4262,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3931,13 +4318,13 @@
         <v>84959</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -3946,10 +4333,10 @@
         <v>112721</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3961,13 +4348,13 @@
         <v>197681</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4369,13 @@
         <v>274290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>253</v>
@@ -3997,13 +4384,13 @@
         <v>277994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>505</v>
@@ -4012,13 +4399,13 @@
         <v>552284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,49 +4467,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>62046</v>
+        <v>35192</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I19" s="7">
-        <v>90325</v>
+        <v>54607</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="N19" s="7">
-        <v>152372</v>
+        <v>89799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,49 +4518,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>348</v>
+        <v>207</v>
       </c>
       <c r="D20" s="7">
-        <v>384378</v>
+        <v>226306</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>479</v>
+        <v>238</v>
       </c>
       <c r="I20" s="7">
-        <v>512677</v>
+        <v>245982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>827</v>
+        <v>445</v>
       </c>
       <c r="N20" s="7">
-        <v>897054</v>
+        <v>472288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>403</v>
+        <v>238</v>
       </c>
       <c r="D21" s="7">
-        <v>446424</v>
+        <v>261498</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4197,10 +4584,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>564</v>
+        <v>291</v>
       </c>
       <c r="I21" s="7">
-        <v>603002</v>
+        <v>300589</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4212,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>967</v>
+        <v>529</v>
       </c>
       <c r="N21" s="7">
-        <v>1049426</v>
+        <v>562087</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4229,55 +4616,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>814</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>863862</v>
+        <v>26854</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>913</v>
+        <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>983135</v>
+        <v>35718</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>1727</v>
+        <v>56</v>
       </c>
       <c r="N22" s="7">
-        <v>1846997</v>
+        <v>62573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +4673,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1919</v>
+        <v>141</v>
       </c>
       <c r="D23" s="7">
-        <v>2047744</v>
+        <v>158072</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>2004</v>
+        <v>241</v>
       </c>
       <c r="I23" s="7">
-        <v>2165167</v>
+        <v>266695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>3923</v>
+        <v>382</v>
       </c>
       <c r="N23" s="7">
-        <v>4212911</v>
+        <v>424766</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,63 +4724,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>273</v>
+      </c>
+      <c r="I24" s="7">
+        <v>302413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>438</v>
+      </c>
+      <c r="N24" s="7">
+        <v>487339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>814</v>
+      </c>
+      <c r="D25" s="7">
+        <v>863862</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>913</v>
+      </c>
+      <c r="I25" s="7">
+        <v>983135</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1727</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1846997</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1919</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2047744</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2004</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2165167</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3923</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4212911</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2733</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2911606</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2917</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3148302</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5650</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6059908</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4406,8 +4949,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACEEF3D-88CA-4578-840B-7E142CB14FA4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84035D28-A1C2-4836-A597-C20AAEF44E06}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4423,7 +4966,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4530,13 +5073,13 @@
         <v>118032</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
@@ -4545,13 +5088,13 @@
         <v>118591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>232</v>
@@ -4560,13 +5103,13 @@
         <v>236623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +5124,13 @@
         <v>234808</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -4596,13 +5139,13 @@
         <v>233339</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -4611,13 +5154,13 @@
         <v>468147</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +5228,13 @@
         <v>199818</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>194</v>
@@ -4700,13 +5243,13 @@
         <v>189037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>390</v>
@@ -4715,13 +5258,13 @@
         <v>388855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +5279,13 @@
         <v>293260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>316</v>
@@ -4751,13 +5294,13 @@
         <v>307683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>595</v>
@@ -4766,13 +5309,13 @@
         <v>600942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +5383,13 @@
         <v>236597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
@@ -4855,13 +5398,13 @@
         <v>254978</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -4870,13 +5413,13 @@
         <v>491575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +5434,13 @@
         <v>321263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>320</v>
@@ -4906,13 +5449,13 @@
         <v>318102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -4921,13 +5464,13 @@
         <v>639365</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5538,13 @@
         <v>191185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>223</v>
@@ -5010,13 +5553,13 @@
         <v>239762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>395</v>
@@ -5025,13 +5568,13 @@
         <v>430947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5589,13 @@
         <v>321187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -5061,13 +5604,13 @@
         <v>305122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>575</v>
@@ -5076,13 +5619,13 @@
         <v>626309</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5693,13 @@
         <v>104424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>117</v>
@@ -5165,13 +5708,13 @@
         <v>137419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -5180,13 +5723,13 @@
         <v>241844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5744,13 @@
         <v>266578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -5216,13 +5759,13 @@
         <v>258454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>463</v>
@@ -5231,13 +5774,13 @@
         <v>525031</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,49 +5842,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>78394</v>
+        <v>50117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>126485</v>
+        <v>82135</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>204879</v>
+        <v>132252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5893,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>318</v>
+        <v>176</v>
       </c>
       <c r="D20" s="7">
-        <v>298788</v>
+        <v>180008</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="I20" s="7">
-        <v>378342</v>
+        <v>194813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
-        <v>636</v>
+        <v>359</v>
       </c>
       <c r="N20" s="7">
-        <v>677130</v>
+        <v>374822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,10 +5944,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5416,10 +5959,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5431,10 +5974,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5448,55 +5991,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>884</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7">
-        <v>928451</v>
+        <v>28277</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
-        <v>1022</v>
+        <v>35</v>
       </c>
       <c r="I22" s="7">
-        <v>1066273</v>
+        <v>44350</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
-        <v>1906</v>
+        <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>1994724</v>
+        <v>72627</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,49 +6048,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1646</v>
+        <v>142</v>
       </c>
       <c r="D23" s="7">
-        <v>1735883</v>
+        <v>118780</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
-        <v>1705</v>
+        <v>135</v>
       </c>
       <c r="I23" s="7">
-        <v>1801042</v>
+        <v>183529</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
-        <v>3351</v>
+        <v>277</v>
       </c>
       <c r="N23" s="7">
-        <v>3536925</v>
+        <v>302309</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,63 +6099,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>884</v>
+      </c>
+      <c r="D25" s="7">
+        <v>928451</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1022</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1066273</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1906</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1994724</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1646</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1735882</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1705</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1801042</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3351</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3536924</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5625,8 +6324,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF2A7C-7609-425E-9A7A-0E507FBCD3C7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A6D4B-B60E-46E8-A648-B59BE660D563}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5642,7 +6341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5746,46 +6445,46 @@
         <v>71</v>
       </c>
       <c r="D4" s="7">
-        <v>167511</v>
+        <v>171977</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>142001</v>
+        <v>116932</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>155</v>
       </c>
       <c r="N4" s="7">
-        <v>309512</v>
+        <v>288909</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,46 +6496,46 @@
         <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>190247</v>
+        <v>211470</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>111</v>
       </c>
       <c r="I5" s="7">
-        <v>202495</v>
+        <v>186609</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
       </c>
       <c r="N5" s="7">
-        <v>392742</v>
+        <v>398079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +6547,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5863,7 +6562,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5878,7 +6577,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5901,46 +6600,46 @@
         <v>154</v>
       </c>
       <c r="D7" s="7">
-        <v>228066</v>
+        <v>222667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>244</v>
       </c>
       <c r="I7" s="7">
-        <v>258431</v>
+        <v>232506</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>414</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>486497</v>
+        <v>455173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>416</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,46 +6651,46 @@
         <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>179134</v>
+        <v>179684</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7">
         <v>198</v>
       </c>
       <c r="I8" s="7">
-        <v>227444</v>
+        <v>267186</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>474</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
       <c r="M8" s="7">
         <v>325</v>
       </c>
       <c r="N8" s="7">
-        <v>406578</v>
+        <v>446869</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,7 +6702,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6018,7 +6717,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6033,7 +6732,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6056,46 +6755,46 @@
         <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>309106</v>
+        <v>294726</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>468</v>
       </c>
       <c r="I10" s="7">
-        <v>329254</v>
+        <v>302627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>754</v>
       </c>
       <c r="N10" s="7">
-        <v>638361</v>
+        <v>597354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,46 +6806,46 @@
         <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>235249</v>
+        <v>229316</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>357</v>
       </c>
       <c r="I11" s="7">
-        <v>242942</v>
+        <v>229254</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>478191</v>
+        <v>458569</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6857,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6173,7 +6872,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6188,7 +6887,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6211,46 +6910,46 @@
         <v>326</v>
       </c>
       <c r="D13" s="7">
-        <v>328487</v>
+        <v>309573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
         <v>612</v>
       </c>
       <c r="I13" s="7">
-        <v>395743</v>
+        <v>362261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="M13" s="7">
         <v>938</v>
       </c>
       <c r="N13" s="7">
-        <v>724230</v>
+        <v>671833</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,46 +6961,46 @@
         <v>314</v>
       </c>
       <c r="D14" s="7">
-        <v>373126</v>
+        <v>552389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
       </c>
       <c r="I14" s="7">
-        <v>338064</v>
+        <v>338331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>819</v>
       </c>
       <c r="N14" s="7">
-        <v>711190</v>
+        <v>890721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,7 +7012,7 @@
         <v>640</v>
       </c>
       <c r="D15" s="7">
-        <v>701613</v>
+        <v>861962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6328,7 +7027,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6343,7 +7042,7 @@
         <v>1757</v>
       </c>
       <c r="N15" s="7">
-        <v>1435420</v>
+        <v>1562554</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6366,46 +7065,46 @@
         <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>270496</v>
+        <v>249555</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>510</v>
       </c>
       <c r="I16" s="7">
-        <v>302077</v>
+        <v>274325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>426</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>810</v>
       </c>
       <c r="N16" s="7">
-        <v>572573</v>
+        <v>523881</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,46 +7116,46 @@
         <v>345</v>
       </c>
       <c r="D17" s="7">
-        <v>314274</v>
+        <v>297024</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>471</v>
       </c>
       <c r="I17" s="7">
-        <v>280266</v>
+        <v>260201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>816</v>
       </c>
       <c r="N17" s="7">
-        <v>594540</v>
+        <v>557224</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +7167,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6483,7 +7182,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6498,7 +7197,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6518,49 +7217,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>336</v>
+        <v>224</v>
       </c>
       <c r="D19" s="7">
-        <v>231270</v>
+        <v>141190</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
-        <v>600</v>
+        <v>354</v>
       </c>
       <c r="I19" s="7">
-        <v>433442</v>
+        <v>376215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
-        <v>936</v>
+        <v>578</v>
       </c>
       <c r="N19" s="7">
-        <v>664712</v>
+        <v>517405</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,49 +7268,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>667</v>
+        <v>332</v>
       </c>
       <c r="D20" s="7">
-        <v>449946</v>
+        <v>218163</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="H20" s="7">
-        <v>1057</v>
+        <v>453</v>
       </c>
       <c r="I20" s="7">
-        <v>564688</v>
+        <v>223694</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
-        <v>1724</v>
+        <v>785</v>
       </c>
       <c r="N20" s="7">
-        <v>1014634</v>
+        <v>441857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,10 +7319,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1003</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>681216</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6635,10 +7334,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6650,10 +7349,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2660</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1679346</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6667,55 +7366,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1473</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>1534937</v>
+        <v>70926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
-        <v>2518</v>
+        <v>246</v>
       </c>
       <c r="I22" s="7">
-        <v>1860948</v>
+        <v>117344</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
-        <v>3991</v>
+        <v>358</v>
       </c>
       <c r="N22" s="7">
-        <v>3395885</v>
+        <v>188270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,49 +7423,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1780</v>
+        <v>335</v>
       </c>
       <c r="D23" s="7">
-        <v>1741975</v>
+        <v>205300</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="H23" s="7">
-        <v>2699</v>
+        <v>604</v>
       </c>
       <c r="I23" s="7">
-        <v>1855900</v>
+        <v>291343</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>454</v>
+        <v>559</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
-        <v>4479</v>
+        <v>939</v>
       </c>
       <c r="N23" s="7">
-        <v>3597875</v>
+        <v>496643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,63 +7474,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>447</v>
+      </c>
+      <c r="D24" s="7">
+        <v>276226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684913</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1473</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1460614</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2518</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1782210</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3991</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3242824</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1780</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1893346</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2699</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1796617</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4479</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3689963</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276912</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3353960</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993760</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6932787</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
